--- a/src/public/statistics/thong-ke-doanh-so-theo-nam.xlsx
+++ b/src/public/statistics/thong-ke-doanh-so-theo-nam.xlsx
@@ -375,14 +375,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>BẢNG THỐNG KÊ DOANH THU TỪ NĂM 2021 - 2023</v>
+        <v>BẢNG THỐNG KÊ DOANH THU TỪ NĂM 2021 - 2024</v>
       </c>
     </row>
     <row r="2">
@@ -398,6 +398,9 @@
       <c r="D2">
         <v>2023</v>
       </c>
+      <c r="E2">
+        <v>2024</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -412,8 +415,11 @@
       <c r="D3">
         <v>12400000</v>
       </c>
-      <c r="E3" t="str">
-        <v>Doanh thu 2023 tăng Infinity% so với năm 2021</v>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3" t="str">
+        <v>Doanh thu 2024 giảm NaN% so với năm 2021</v>
       </c>
     </row>
   </sheetData>
@@ -421,7 +427,7 @@
     <mergeCell ref="A1:M1"/>
   </mergeCells>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F3"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/src/public/statistics/thong-ke-doanh-so-theo-nam.xlsx
+++ b/src/public/statistics/thong-ke-doanh-so-theo-nam.xlsx
@@ -410,10 +410,10 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>96960000</v>
+        <v>12600000</v>
       </c>
       <c r="D3">
-        <v>12400000</v>
+        <v>0</v>
       </c>
       <c r="E3">
         <v>0</v>
